--- a/biology/Botanique/Piper_guineense/Piper_guineense.xlsx
+++ b/biology/Botanique/Piper_guineense/Piper_guineense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Piper guineense est un grimpeur boisé du Ghana et d'autres parties de l'Afrique occidentale, utilisé comme épice et médicament indigène[2]. Il est connu sous les noms suivants : poivrier des Ashantis, cubébe, poivrier de la forêt, poivrier de Guinée, poivrier du Kissi, poivrier de laine[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Piper guineense est un grimpeur boisé du Ghana et d'autres parties de l'Afrique occidentale, utilisé comme épice et médicament indigène. Il est connu sous les noms suivants : poivrier des Ashantis, cubébe, poivrier de la forêt, poivrier de Guinée, poivrier du Kissi, poivrier de laine.
 </t>
         </is>
       </c>
@@ -511,21 +523,23 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cubeba clusii Miq. (1843)[1]
-Piper clusii (Miq.) C.DC. (1869)[1]
-Piper demeusei C.DC. (1925)[1]
-Piper famechonii Heckel ex C.DC. (1914)[1]
-Piper guineense var. clusii (Miq.) Engl. (1932)[1]
-Piper guineense var. congolense C.DC. (1901)[1]
-Piper guineense var. gilletii C.DC. (1901)[1]
-Piper guineense var. thomeanum C.DC. (1892)[1]
-Piper guineense var. velutinum De Wild. (1907)[1]
-Piper laurentii De Wild. (1906)[1]
-Piper leonense C.DC. (1866)[1]
-Piper sclerocladum C.DC. (1894)[1]
-Piper zenkeri C.DC. (1920)[1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cubeba clusii Miq. (1843)
+Piper clusii (Miq.) C.DC. (1869)
+Piper demeusei C.DC. (1925)
+Piper famechonii Heckel ex C.DC. (1914)
+Piper guineense var. clusii (Miq.) Engl. (1932)
+Piper guineense var. congolense C.DC. (1901)
+Piper guineense var. gilletii C.DC. (1901)
+Piper guineense var. thomeanum C.DC. (1892)
+Piper guineense var. velutinum De Wild. (1907)
+Piper laurentii De Wild. (1906)
+Piper leonense C.DC. (1866)
+Piper sclerocladum C.DC. (1894)
+Piper zenkeri C.DC. (1920)</t>
         </is>
       </c>
     </row>
@@ -553,9 +567,11 @@
           <t>Analyse chimique de la plante</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'huile volatile des fruits (baies) de la poivre Ashanti a été étudiée par chromatographie en phase gazeuse et par des techniques de Chromatographie en phase gazeuse-spectrométrie de masse. L'huile essentielle (riche en phénylpropanoïdes) était composé de myristicine, de sarisan (1,3-Benzodioxole), de safrole et d'élémicine comme les éléments dominants. Cinquante-et-un mono- et sesquiterpènes constituaient une proportion mineure de l'huile[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'huile volatile des fruits (baies) de la poivre Ashanti a été étudiée par chromatographie en phase gazeuse et par des techniques de Chromatographie en phase gazeuse-spectrométrie de masse. L'huile essentielle (riche en phénylpropanoïdes) était composé de myristicine, de sarisan (1,3-Benzodioxole), de safrole et d'élémicine comme les éléments dominants. Cinquante-et-un mono- et sesquiterpènes constituaient une proportion mineure de l'huile.
 </t>
         </is>
       </c>
@@ -584,9 +600,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Nigeria, la plante s'utilise comme médicament pour traiter des maux d'estomac et la gonorrhée. Les feuilles sont consommées en soupes pour l'amélioration de la fertilité chez les femmes[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Nigeria, la plante s'utilise comme médicament pour traiter des maux d'estomac et la gonorrhée. Les feuilles sont consommées en soupes pour l'amélioration de la fertilité chez les femmes.
 </t>
         </is>
       </c>
